--- a/BTC_Transaction_4.xlsx
+++ b/BTC_Transaction_4.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +440,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>window</t>
+          <t>start</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>hash</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>in_addr</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>out_addr</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>in_value</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>out_value</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>first(hash)</t>
         </is>
@@ -474,33 +483,34 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Row(start=datetime.datetime(2023, 2, 26, 18, 19, 47), end=datetime.datetime(2023, 2, 26, 18, 19, 48))</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="2" t="n">
+        <v>44983.76373842593</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44983.76375</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>uuuuuuuuuuuuuuuuuibbbbbbbbbbbbb</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>zzzzzzzzfJ8tcb9mpKENDWdaf7RSZXAmRc</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nnnnnnnnnnnVEC9YCj9yZbhbCbyAoWJX98gBiQ</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1653915</v>
-      </c>
       <c r="G2" t="n">
-        <v>424184</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>0.01653915</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.00424184</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>uuuuuuuuuuuuuuuuuibbbbbbbbbbbbb</t>
         </is>
@@ -510,33 +520,34 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Row(start=datetime.datetime(2023, 2, 26, 18, 19, 46), end=datetime.datetime(2023, 2, 26, 18, 19, 47))</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="2" t="n">
+        <v>44983.76372685185</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44983.76373842593</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>c4a0dae726c6892477765a6597cf3a36918ba5302d88e63854f9988bb33519dd</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>bc1qxws7zz7lejjckkntggc0yvt7sqttjd0umsas7d</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>bc1qddv08fla39aa08f690g7hrg43jxmzc4z8jwwmw</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>21171100</v>
-      </c>
       <c r="G3" t="n">
-        <v>1452978</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>0.211711</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01452978</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>c4a0dae726c6892477765a6597cf3a36918ba5302d88e63854f9988bb33519dd</t>
         </is>
@@ -546,33 +557,34 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Row(start=datetime.datetime(2023, 2, 26, 18, 19, 47), end=datetime.datetime(2023, 2, 26, 18, 19, 48))</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="2" t="n">
+        <v>44983.76373842593</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44983.76375</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>8beadc7ad67f03281c0588ed726c9e59a6da0eea0411d8e38cf0cb9f75477772</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1HZ2DXkXfJ8tcb9mpKENDWdaf7RSZXAmRc</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>32fX1K1VEC9YCj9yZbhbCbyAoWJX98gBiQ</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>1653915</v>
-      </c>
       <c r="G4" t="n">
-        <v>424184</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>0.01653915</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00424184</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>8beadc7ad67f03281c0588ed726c9e59a6da0eea0411d8e38cf0cb9f75477772</t>
         </is>
@@ -582,33 +594,34 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Row(start=datetime.datetime(2023, 2, 26, 18, 19, 46), end=datetime.datetime(2023, 2, 26, 18, 19, 47))</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" s="2" t="n">
+        <v>44983.76372685185</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44983.76373842593</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>NNNNNNNNNNNNNNNNNJFFFFFFFFFFFF</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>tttttttz7lejjckkntggc0yvt7sqttjd0umsas7d</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>jjjjjjjjjj8fla39aa08f690g7hrg43jxmzc4z8jwwmw</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>21171100</v>
-      </c>
       <c r="G5" t="n">
-        <v>1452978</v>
-      </c>
-      <c r="H5" t="inlineStr">
+        <v>0.211711</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01452978</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>NNNNNNNNNNNNNNNNNJFFFFFFFFFFFF</t>
         </is>
@@ -618,33 +631,34 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Row(start=datetime.datetime(2023, 2, 26, 18, 19, 46), end=datetime.datetime(2023, 2, 26, 18, 19, 47))</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" s="2" t="n">
+        <v>44983.76372685185</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44983.76373842593</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>NNNNNNNNNNNNNNNNNJFFFFFFFFFFFF</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>tttttttz7lejjckkntggc0yvt7sqttjd0umsas7d</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ppppppppppC7T8DsFTUBYQ6sg1yW2D4i2qX</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>21171100</v>
-      </c>
       <c r="G6" t="n">
-        <v>19716700</v>
-      </c>
-      <c r="H6" t="inlineStr">
+        <v>0.211711</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.197167</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>NNNNNNNNNNNNNNNNNJFFFFFFFFFFFF</t>
         </is>
@@ -654,33 +668,34 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Row(start=datetime.datetime(2023, 2, 26, 18, 19, 47), end=datetime.datetime(2023, 2, 26, 18, 19, 48))</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" s="2" t="n">
+        <v>44983.76373842593</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44983.76375</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>8beadc7ad67f03281c0588ed726c9e59a6da0eea0411d8e38cf0cb9f75477772</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1HZ2DXkXfJ8tcb9mpKENDWdaf7RSZXAmRc</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1ASianzRhTUkHr4pcbsP3as53yUYv8atxy</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1653915</v>
-      </c>
       <c r="G7" t="n">
-        <v>1222787</v>
-      </c>
-      <c r="H7" t="inlineStr">
+        <v>0.01653915</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01222787</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>8beadc7ad67f03281c0588ed726c9e59a6da0eea0411d8e38cf0cb9f75477772</t>
         </is>
@@ -690,33 +705,34 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Row(start=datetime.datetime(2023, 2, 26, 18, 19, 46), end=datetime.datetime(2023, 2, 26, 18, 19, 47))</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" s="2" t="n">
+        <v>44983.76372685185</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44983.76373842593</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>c4a0dae726c6892477765a6597cf3a36918ba5302d88e63854f9988bb33519dd</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>bc1qxws7zz7lejjckkntggc0yvt7sqttjd0umsas7d</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1D6U9ziBDC7T8DsFTUBYQ6sg1yW2D4i2qX</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>21171100</v>
-      </c>
       <c r="G8" t="n">
-        <v>19716700</v>
-      </c>
-      <c r="H8" t="inlineStr">
+        <v>0.211711</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.197167</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>c4a0dae726c6892477765a6597cf3a36918ba5302d88e63854f9988bb33519dd</t>
         </is>
@@ -726,33 +742,34 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Row(start=datetime.datetime(2023, 2, 26, 18, 19, 47), end=datetime.datetime(2023, 2, 26, 18, 19, 48))</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" s="2" t="n">
+        <v>44983.76373842593</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44983.76375</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>uuuuuuuuuuuuuuuuuibbbbbbbbbbbbb</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>zzzzzzzzfJ8tcb9mpKENDWdaf7RSZXAmRc</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>tejasRhTUkHr4pcbsP3as53yUYv8atxy</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>1653915</v>
-      </c>
       <c r="G9" t="n">
-        <v>1222787</v>
-      </c>
-      <c r="H9" t="inlineStr">
+        <v>0.01653915</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01222787</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>uuuuuuuuuuuuuuuuuibbbbbbbbbbbbb</t>
         </is>
